--- a/songLibrary.xlsx
+++ b/songLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmadr\matlabRhythm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8BE977-2779-4379-A009-B7550BBCF8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F4D4FB-9268-4710-B1E4-E0247319B3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2798" yWindow="2152" windowWidth="16365" windowHeight="9391" xr2:uid="{69BF3A38-E7FD-4343-8BC5-482915E62CC9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Song</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>LE SSERAFIM</t>
+  </si>
+  <si>
+    <t>TrackFile</t>
+  </si>
+  <si>
+    <t>crazy-lesserafim.mp3</t>
   </si>
 </sst>
 </file>
@@ -910,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE1D80D-6ACD-4E71-A3EA-934AF16271D0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -921,7 +927,7 @@
     <col min="2" max="2" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,8 +940,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -946,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -957,12 +966,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
